--- a/excel_files/correlation.xlsx
+++ b/excel_files/correlation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="180">
   <si>
     <t>MERT-v1-95M</t>
   </si>
@@ -28,6 +28,9 @@
     <t>clap-2023</t>
   </si>
   <si>
+    <t>clap-2023-emb128</t>
+  </si>
+  <si>
     <t>clap-laion-audio</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>encodec-emb-48k</t>
   </si>
   <si>
-    <t>joint-scat</t>
-  </si>
-  <si>
     <t>panns-cnn14-16k</t>
   </si>
   <si>
@@ -55,6 +55,12 @@
     <t>panns-wavegram-logmel</t>
   </si>
   <si>
+    <t>panns-wavegram-logmel-1s</t>
+  </si>
+  <si>
+    <t>panns-wavegram-logmel-emb128</t>
+  </si>
+  <si>
     <t>vggish</t>
   </si>
   <si>
@@ -142,207 +148,237 @@
     <t>0.11</t>
   </si>
   <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.41</t>
+  </si>
+  <si>
+    <t>-0.34</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>-0.59</t>
+  </si>
+  <si>
+    <t>-0.54</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.48</t>
+  </si>
+  <si>
+    <t>-0.40</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>-0.42</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>-0.29</t>
+  </si>
+  <si>
+    <t>-0.43</t>
+  </si>
+  <si>
+    <t>-0.45</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>-0.60</t>
+  </si>
+  <si>
+    <t>-0.56</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>-0.63</t>
+  </si>
+  <si>
+    <t>-0.95</t>
+  </si>
+  <si>
+    <t>-0.90</t>
+  </si>
+  <si>
+    <t>-0.27</t>
+  </si>
+  <si>
+    <t>-0.25</t>
+  </si>
+  <si>
+    <t>-0.80</t>
+  </si>
+  <si>
+    <t>-0.78</t>
+  </si>
+  <si>
+    <t>-0.10</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.30</t>
+  </si>
+  <si>
+    <t>-0.31</t>
+  </si>
+  <si>
+    <t>-0.39</t>
+  </si>
+  <si>
+    <t>-0.20</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.57</t>
+  </si>
+  <si>
+    <t>-0.33</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>-0.53</t>
+  </si>
+  <si>
+    <t>-0.47</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>-0.41</t>
-  </si>
-  <si>
-    <t>-0.34</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.23</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>-0.59</t>
-  </si>
-  <si>
-    <t>-0.54</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.24</t>
-  </si>
-  <si>
-    <t>-0.48</t>
-  </si>
-  <si>
-    <t>-0.40</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>-0.50</t>
-  </si>
-  <si>
-    <t>-0.42</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>0.44</t>
-  </si>
-  <si>
-    <t>-0.29</t>
-  </si>
-  <si>
-    <t>-0.43</t>
-  </si>
-  <si>
-    <t>-0.45</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>-0.60</t>
-  </si>
-  <si>
-    <t>-0.56</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>-0.63</t>
-  </si>
-  <si>
-    <t>-0.95</t>
-  </si>
-  <si>
-    <t>-0.90</t>
-  </si>
-  <si>
-    <t>-0.27</t>
-  </si>
-  <si>
-    <t>-0.25</t>
-  </si>
-  <si>
-    <t>-0.80</t>
-  </si>
-  <si>
-    <t>-0.78</t>
-  </si>
-  <si>
-    <t>-0.10</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
     <t>-0.08</t>
   </si>
   <si>
-    <t>-0.30</t>
-  </si>
-  <si>
     <t>-0.26</t>
   </si>
   <si>
@@ -373,9 +409,6 @@
     <t>-0.96</t>
   </si>
   <si>
-    <t>-0.19</t>
-  </si>
-  <si>
     <t>-0.77</t>
   </si>
   <si>
@@ -394,19 +427,13 @@
     <t>0.56</t>
   </si>
   <si>
-    <t>-0.39</t>
-  </si>
-  <si>
     <t>0.34</t>
   </si>
   <si>
-    <t>0.28</t>
-  </si>
-  <si>
     <t>0.29</t>
   </si>
   <si>
-    <t>-0.11</t>
+    <t>0.05</t>
   </si>
   <si>
     <t>0.02</t>
@@ -424,118 +451,109 @@
     <t>-0.62</t>
   </si>
   <si>
-    <t>-0.53</t>
-  </si>
-  <si>
-    <t>0.10</t>
+    <t>-0.83</t>
+  </si>
+  <si>
+    <t>-0.84</t>
+  </si>
+  <si>
+    <t>-0.72</t>
+  </si>
+  <si>
+    <t>-0.85</t>
+  </si>
+  <si>
+    <t>-0.81</t>
+  </si>
+  <si>
+    <t>-0.86</t>
+  </si>
+  <si>
+    <t>-0.38</t>
+  </si>
+  <si>
+    <t>-0.67</t>
+  </si>
+  <si>
+    <t>-0.75</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>-0.44</t>
+  </si>
+  <si>
+    <t>-0.32</t>
+  </si>
+  <si>
+    <t>-0.64</t>
+  </si>
+  <si>
+    <t>-0.51</t>
+  </si>
+  <si>
+    <t>-0.76</t>
+  </si>
+  <si>
+    <t>-0.68</t>
+  </si>
+  <si>
+    <t>-0.61</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>-0.46</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>-0.79</t>
+  </si>
+  <si>
+    <t>-0.49</t>
+  </si>
+  <si>
+    <t>-0.24</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>-0.65</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.58</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>0.66</t>
   </si>
   <si>
     <t>0.35</t>
   </si>
   <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>-0.83</t>
-  </si>
-  <si>
-    <t>-0.84</t>
-  </si>
-  <si>
-    <t>-0.72</t>
-  </si>
-  <si>
-    <t>-0.85</t>
-  </si>
-  <si>
-    <t>-0.81</t>
-  </si>
-  <si>
-    <t>-0.86</t>
-  </si>
-  <si>
-    <t>-0.38</t>
-  </si>
-  <si>
-    <t>-0.20</t>
-  </si>
-  <si>
-    <t>-0.67</t>
-  </si>
-  <si>
-    <t>-0.75</t>
-  </si>
-  <si>
-    <t>-0.91</t>
-  </si>
-  <si>
-    <t>-0.44</t>
-  </si>
-  <si>
-    <t>-0.55</t>
-  </si>
-  <si>
-    <t>-0.76</t>
-  </si>
-  <si>
-    <t>-0.88</t>
-  </si>
-  <si>
-    <t>-0.52</t>
-  </si>
-  <si>
-    <t>-0.57</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>0.50</t>
-  </si>
-  <si>
-    <t>-0.65</t>
-  </si>
-  <si>
-    <t>-0.49</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>-0.58</t>
-  </si>
-  <si>
-    <t>0.60</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>-0.14</t>
-  </si>
-  <si>
-    <t>-0.31</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>-0.33</t>
-  </si>
-  <si>
     <t>-0.00</t>
   </si>
   <si>
     <t>0.36</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>-0.32</t>
-  </si>
-  <si>
-    <t>-0.51</t>
   </si>
 </sst>
 </file>
@@ -893,18 +911,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -963,2181 +981,2391 @@
       <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
         <v>106</v>
       </c>
-      <c r="K2" t="s">
-        <v>130</v>
-      </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="M2" t="s">
         <v>101</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>106</v>
+      </c>
+      <c r="R2" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" t="s">
-        <v>130</v>
-      </c>
       <c r="S2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="U2" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
         <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="O3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" t="s">
         <v>106</v>
       </c>
-      <c r="Q3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" t="s">
-        <v>58</v>
-      </c>
       <c r="S3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>178</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="O4" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="Q4" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>119</v>
+      </c>
+      <c r="V4" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="Q5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="R5" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>45</v>
+      </c>
+      <c r="V5" t="s">
+        <v>45</v>
+      </c>
+      <c r="W5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>93</v>
       </c>
       <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
         <v>106</v>
       </c>
-      <c r="H6" t="s">
-        <v>113</v>
-      </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s">
+        <v>111</v>
+      </c>
+      <c r="O6" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" t="s">
         <v>119</v>
       </c>
-      <c r="O6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" t="s">
-        <v>80</v>
-      </c>
       <c r="U6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>45</v>
+      </c>
+      <c r="V6" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
         <v>93</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="Q7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>119</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="M8" t="s">
         <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="Q8" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="T8" t="s">
+        <v>72</v>
+      </c>
+      <c r="U8" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
         <v>97</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
         <v>101</v>
       </c>
-      <c r="I9" t="s">
-        <v>123</v>
-      </c>
       <c r="J9" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="K9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" t="s">
+        <v>106</v>
+      </c>
+      <c r="S9" t="s">
+        <v>67</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" t="s">
+        <v>178</v>
+      </c>
+      <c r="V9" t="s">
+        <v>178</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" t="s">
         <v>47</v>
       </c>
-      <c r="L9" t="s">
-        <v>131</v>
-      </c>
-      <c r="M9" t="s">
-        <v>140</v>
-      </c>
-      <c r="N9" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" t="s">
-        <v>145</v>
-      </c>
-      <c r="P9" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" t="s">
-        <v>169</v>
-      </c>
-      <c r="T9" t="s">
-        <v>169</v>
-      </c>
-      <c r="U9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" t="s">
-        <v>41</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" t="s">
+        <v>53</v>
+      </c>
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" t="s">
         <v>68</v>
       </c>
-      <c r="O10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>47</v>
-      </c>
-      <c r="R10" t="s">
-        <v>54</v>
-      </c>
-      <c r="S10" t="s">
-        <v>87</v>
-      </c>
-      <c r="T10" t="s">
-        <v>67</v>
-      </c>
       <c r="U10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" t="s">
         <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>137</v>
-      </c>
-      <c r="O11" t="s">
-        <v>137</v>
       </c>
       <c r="P11" t="s">
         <v>47</v>
       </c>
       <c r="Q11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="R11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="T11" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="U11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>68</v>
+      </c>
+      <c r="V11" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
         <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
         <v>81</v>
       </c>
-      <c r="L12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" t="s">
-        <v>78</v>
-      </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="R12" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="S12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="T12" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="U12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>179</v>
+      </c>
+      <c r="V12" t="s">
+        <v>63</v>
+      </c>
+      <c r="W12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
         <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N13" t="s">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" t="s">
+        <v>169</v>
+      </c>
+      <c r="S13" t="s">
+        <v>133</v>
+      </c>
+      <c r="T13" t="s">
+        <v>141</v>
+      </c>
+      <c r="U13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V13" t="s">
+        <v>164</v>
+      </c>
+      <c r="W13" t="s">
         <v>67</v>
       </c>
-      <c r="N13" t="s">
-        <v>82</v>
-      </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>122</v>
-      </c>
-      <c r="R13" t="s">
-        <v>132</v>
-      </c>
-      <c r="S13" t="s">
-        <v>171</v>
-      </c>
-      <c r="T13" t="s">
-        <v>171</v>
-      </c>
-      <c r="U13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
         <v>63</v>
       </c>
-      <c r="K14" t="s">
-        <v>50</v>
-      </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M14" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="P14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="Q14" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="R14" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>55</v>
+      </c>
+      <c r="V14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>53</v>
+      </c>
+      <c r="S15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
-      </c>
-      <c r="P15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R15" t="s">
-        <v>67</v>
-      </c>
-      <c r="S15" t="s">
-        <v>87</v>
-      </c>
-      <c r="T15" t="s">
-        <v>87</v>
-      </c>
-      <c r="U15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>121</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" t="s">
+        <v>146</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>157</v>
+      </c>
+      <c r="P16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>62</v>
+      </c>
+      <c r="R16" t="s">
+        <v>170</v>
+      </c>
+      <c r="S16" t="s">
+        <v>174</v>
+      </c>
+      <c r="T16" t="s">
+        <v>121</v>
+      </c>
+      <c r="U16" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" t="s">
+        <v>46</v>
+      </c>
+      <c r="W16" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" t="s">
-        <v>141</v>
-      </c>
-      <c r="N16" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>164</v>
-      </c>
-      <c r="R16" t="s">
-        <v>109</v>
-      </c>
-      <c r="S16" t="s">
-        <v>65</v>
-      </c>
-      <c r="T16" t="s">
-        <v>137</v>
-      </c>
-      <c r="U16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>158</v>
+      </c>
+      <c r="P17" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" t="s">
+        <v>141</v>
+      </c>
+      <c r="V17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" t="s">
         <v>58</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>114</v>
-      </c>
-      <c r="J17" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" t="s">
-        <v>142</v>
-      </c>
-      <c r="N17" t="s">
-        <v>148</v>
-      </c>
-      <c r="O17" t="s">
-        <v>135</v>
-      </c>
-      <c r="P17" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="R17" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" t="s">
-        <v>132</v>
-      </c>
-      <c r="T17" t="s">
-        <v>129</v>
-      </c>
-      <c r="U17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" t="s">
-        <v>72</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" t="s">
         <v>50</v>
       </c>
-      <c r="L18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M18" t="s">
-        <v>54</v>
-      </c>
-      <c r="N18" t="s">
-        <v>54</v>
-      </c>
       <c r="O18" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>62</v>
+      </c>
+      <c r="V18" t="s">
+        <v>63</v>
+      </c>
+      <c r="W18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" t="s">
+        <v>50</v>
+      </c>
+      <c r="T19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" t="s">
+        <v>68</v>
+      </c>
+      <c r="V19" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
         <v>87</v>
-      </c>
-      <c r="G19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" t="s">
-        <v>97</v>
-      </c>
-      <c r="N19" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" t="s">
-        <v>47</v>
-      </c>
-      <c r="P19" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" t="s">
-        <v>54</v>
-      </c>
-      <c r="S19" t="s">
-        <v>47</v>
-      </c>
-      <c r="T19" t="s">
-        <v>65</v>
-      </c>
-      <c r="U19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>99</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" t="s">
         <v>95</v>
       </c>
-      <c r="K20" t="s">
-        <v>135</v>
-      </c>
       <c r="L20" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
         <v>99</v>
       </c>
       <c r="O20" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="Q20" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" t="s">
         <v>97</v>
       </c>
-      <c r="R20" t="s">
-        <v>151</v>
-      </c>
-      <c r="S20" t="s">
-        <v>151</v>
-      </c>
       <c r="T20" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="U20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>155</v>
+      </c>
+      <c r="V20" t="s">
+        <v>158</v>
+      </c>
+      <c r="W20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="M21" t="s">
         <v>103</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="P21" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>151</v>
+      </c>
+      <c r="R21" t="s">
+        <v>112</v>
+      </c>
+      <c r="S21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T21" t="s">
+        <v>107</v>
+      </c>
+      <c r="U21" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" t="s">
-        <v>87</v>
-      </c>
-      <c r="R21" t="s">
-        <v>108</v>
-      </c>
-      <c r="S21" t="s">
-        <v>172</v>
-      </c>
-      <c r="T21" t="s">
-        <v>146</v>
-      </c>
-      <c r="U21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" t="s">
+        <v>151</v>
+      </c>
+      <c r="W21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="I22" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L22" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="S22" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="T22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>80</v>
+      </c>
+      <c r="V22" t="s">
+        <v>58</v>
+      </c>
+      <c r="W22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
         <v>68</v>
       </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
       <c r="K23" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="M23" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="N23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q23" t="s">
         <v>68</v>
       </c>
-      <c r="P23" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>67</v>
-      </c>
       <c r="R23" t="s">
+        <v>71</v>
+      </c>
+      <c r="S23" t="s">
+        <v>71</v>
+      </c>
+      <c r="T23" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="S23" t="s">
-        <v>67</v>
-      </c>
-      <c r="T23" t="s">
-        <v>67</v>
-      </c>
-      <c r="U23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
         <v>101</v>
       </c>
       <c r="G24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
         <v>101</v>
       </c>
-      <c r="H24" t="s">
-        <v>115</v>
-      </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K24" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="L24" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="M24" t="s">
         <v>104</v>
       </c>
       <c r="N24" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" t="s">
         <v>151</v>
       </c>
-      <c r="O24" t="s">
-        <v>155</v>
-      </c>
       <c r="P24" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="Q24" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="R24" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T24" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="U24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>87</v>
+      </c>
+      <c r="V24" t="s">
+        <v>152</v>
+      </c>
+      <c r="W24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s">
         <v>102</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" t="s">
         <v>97</v>
       </c>
-      <c r="J25" t="s">
-        <v>132</v>
-      </c>
       <c r="K25" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="N25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q25" t="s">
-        <v>165</v>
+        <v>69</v>
       </c>
       <c r="R25" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="S25" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="T25" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="U25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>172</v>
+      </c>
+      <c r="V25" t="s">
+        <v>153</v>
+      </c>
+      <c r="W25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" t="s">
         <v>63</v>
       </c>
-      <c r="I26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L26" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M26" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="N26" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P26" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="T26" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>71</v>
+      </c>
+      <c r="V26" t="s">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M27" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="N27" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O27" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P27" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="R27" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="S27" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="T27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s">
+        <v>80</v>
+      </c>
+      <c r="W27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
         <v>103</v>
       </c>
       <c r="G28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" t="s">
         <v>103</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
+        <v>131</v>
+      </c>
+      <c r="J28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" t="s">
+        <v>142</v>
+      </c>
+      <c r="M28" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" t="s">
+        <v>122</v>
+      </c>
+      <c r="O28" t="s">
         <v>120</v>
       </c>
-      <c r="I28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K28" t="s">
-        <v>133</v>
-      </c>
-      <c r="L28" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" t="s">
-        <v>143</v>
-      </c>
-      <c r="N28" t="s">
-        <v>110</v>
-      </c>
-      <c r="O28" t="s">
-        <v>110</v>
-      </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="Q28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R28" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="S28" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="T28" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="U28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>44</v>
+      </c>
+      <c r="V28" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
         <v>104</v>
       </c>
       <c r="G29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" t="s">
         <v>104</v>
       </c>
-      <c r="H29" t="s">
-        <v>120</v>
-      </c>
       <c r="I29" t="s">
+        <v>131</v>
+      </c>
+      <c r="J29" t="s">
         <v>106</v>
       </c>
-      <c r="J29" t="s">
-        <v>81</v>
-      </c>
       <c r="K29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L29" t="s">
         <v>106</v>
       </c>
-      <c r="L29" t="s">
-        <v>132</v>
-      </c>
       <c r="M29" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N29" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O29" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="Q29" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="R29" t="s">
+        <v>171</v>
+      </c>
+      <c r="S29" t="s">
+        <v>124</v>
+      </c>
+      <c r="T29" t="s">
+        <v>114</v>
+      </c>
+      <c r="U29" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" t="s">
         <v>72</v>
       </c>
-      <c r="S29" t="s">
-        <v>65</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="W29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" t="s">
         <v>68</v>
       </c>
-      <c r="U29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="N30" t="s">
         <v>53</v>
       </c>
-      <c r="E30" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" t="s">
-        <v>128</v>
-      </c>
-      <c r="J30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" t="s">
-        <v>77</v>
-      </c>
-      <c r="L30" t="s">
-        <v>50</v>
-      </c>
-      <c r="M30" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" t="s">
-        <v>44</v>
-      </c>
       <c r="O30" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="P30" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="Q30" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="R30" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="S30" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="U30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>63</v>
+      </c>
+      <c r="V30" t="s">
+        <v>63</v>
+      </c>
+      <c r="W30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="K31" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="M31" t="s">
         <v>97</v>
       </c>
       <c r="N31" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="O31" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="P31" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="S31" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="T31" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>62</v>
+      </c>
+      <c r="V31" t="s">
+        <v>58</v>
+      </c>
+      <c r="W31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
         <v>105</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="J32" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="M32" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="N32" t="s">
         <v>105</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="P32" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="Q32" t="s">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s">
+        <v>65</v>
+      </c>
+      <c r="S32" t="s">
+        <v>176</v>
+      </c>
+      <c r="T32" t="s">
         <v>105</v>
       </c>
-      <c r="S32" t="s">
-        <v>115</v>
-      </c>
-      <c r="T32" t="s">
+      <c r="U32" t="s">
+        <v>127</v>
+      </c>
+      <c r="V32" t="s">
         <v>101</v>
       </c>
-      <c r="U32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+      <c r="W32" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F33" t="s">
         <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J33" t="s">
+        <v>138</v>
+      </c>
+      <c r="K33" t="s">
         <v>93</v>
       </c>
-      <c r="K33" t="s">
-        <v>119</v>
-      </c>
       <c r="L33" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="M33" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="N33" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="O33" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P33" t="s">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="Q33" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="R33" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="S33" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="T33" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="U33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>111</v>
+      </c>
+      <c r="V33" t="s">
+        <v>48</v>
+      </c>
+      <c r="W33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" t="s">
+        <v>53</v>
+      </c>
+      <c r="M34" t="s">
+        <v>59</v>
+      </c>
+      <c r="N34" t="s">
+        <v>80</v>
+      </c>
+      <c r="O34" t="s">
+        <v>50</v>
+      </c>
+      <c r="P34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>53</v>
+      </c>
+      <c r="R34" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" t="s">
         <v>47</v>
       </c>
-      <c r="I34" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" t="s">
-        <v>54</v>
-      </c>
-      <c r="L34" t="s">
-        <v>47</v>
-      </c>
-      <c r="M34" t="s">
-        <v>77</v>
-      </c>
-      <c r="N34" t="s">
-        <v>65</v>
-      </c>
-      <c r="O34" t="s">
-        <v>65</v>
-      </c>
-      <c r="P34" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>54</v>
-      </c>
-      <c r="R34" t="s">
-        <v>87</v>
-      </c>
-      <c r="S34" t="s">
-        <v>65</v>
-      </c>
       <c r="T34" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="U34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>97</v>
+      </c>
+      <c r="V34" t="s">
+        <v>68</v>
+      </c>
+      <c r="W34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D35" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" t="s">
         <v>97</v>
       </c>
-      <c r="I35" t="s">
-        <v>51</v>
-      </c>
-      <c r="J35" t="s">
-        <v>54</v>
-      </c>
       <c r="K35" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M35" t="s">
         <v>68</v>
       </c>
-      <c r="M35" t="s">
-        <v>65</v>
-      </c>
       <c r="N35" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="O35" t="s">
         <v>47</v>
       </c>
       <c r="P35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q35" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="R35" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="S35" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U35" t="s">
-        <v>42</v>
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
+        <v>50</v>
+      </c>
+      <c r="W35" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
